--- a/Implementation/Python/experiment4blind.xlsx
+++ b/Implementation/Python/experiment4blind.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="N2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="P2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="R2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.4</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="T2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="X2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.7</v>
       </c>
-      <c r="I2" t="n">
+      <c r="Z2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1.8</v>
       </c>
-      <c r="J2" t="n">
+      <c r="AB2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC2" t="n">
         <v>1.9</v>
       </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="AD2" t="n">
-        <v>3.9</v>
+        <v>1.95</v>
       </c>
       <c r="AE2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -640,82 +640,82 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.464</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.452</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.422</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0.434</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.445</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.319</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.301</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.277</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.288</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.28</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.362</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.383</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.138</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.249</v>
+        <v>0.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.264</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -732,85 +732,85 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.616</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.637</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.82</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.834</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.844</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.536</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.548</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.554</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.676</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.658</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.614</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.257</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.293</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.273</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.264</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.458</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.427</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.436</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.416</v>
+        <v>1.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -824,88 +824,88 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.714</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.759</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.177</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.194</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.172</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.134</v>
+        <v>1.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.755</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.77</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.973</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.986</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.889</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9360000000000001</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>0.979</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.847</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.767</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0.332</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.609</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6919999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.594</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.627</v>
+        <v>0.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -916,91 +916,91 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.829</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.856</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.418</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.343</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.589</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.618</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.459</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.41</v>
+        <v>0.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.915</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.141</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.083</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.241</v>
+        <v>0.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.229</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.203</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.103</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>0.911</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.525</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.677</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.714</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.78</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.877</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.873</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8110000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.62</v>
+        <v>1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5620000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.269</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -1011,91 +1011,91 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.873</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.944</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.472</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1.959</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1.995</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.021</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.987</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.688</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.967</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.168</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.342</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.416</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.502</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.381</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.409</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.142</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5659999999999999</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.501</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.743</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.871</v>
+        <v>0.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.023</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.052</v>
+        <v>1.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.928</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1106,91 +1106,91 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.855</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.596</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.604</v>
+        <v>1.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2.221</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>2.439</v>
+        <v>5.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.338</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.286</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.849</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.955</v>
+        <v>1.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0.994</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.334</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.549</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.606</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.745</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.685</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.641</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.652</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.339</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.696</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.878</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.113</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.065</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.235</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.212</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.198</v>
+        <v>0.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.055</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.823</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1201,91 +1201,91 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="D9" t="n">
-        <v>1.731</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>2.466</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2.747</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.841</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.614</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.017</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.016</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.263</v>
+        <v>1.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.691</v>
+        <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.859</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.988</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.895</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.966</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.816</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.505</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>0.654</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>0.663</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.005</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.205</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.309</v>
+        <v>0.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.362</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.425</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.224</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.215</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.872</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,91 +1296,91 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.908</v>
+        <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1.856</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2.652</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>3.089</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.302</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.184</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.795</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.226</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.961</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.965</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.317</v>
+        <v>1.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.598</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.845</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.061</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.311</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>2.196</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.983</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.703</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0.709</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.702</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0.978</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.154</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.423</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.555</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.213</v>
+        <v>0.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.868</v>
+        <v>3.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,94 +1388,94 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.984</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.918</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="E11" t="n">
-        <v>3.425</v>
+        <v>2.5</v>
       </c>
       <c r="F11" t="n">
-        <v>3.732</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.66</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.483</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.074</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.183</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.975</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.341</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.724</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.911</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2.289</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.456</v>
+        <v>5.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.478</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>2.631</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.434</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.899</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6889999999999999</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0.921</v>
+        <v>6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.185</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.433</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.487</v>
+        <v>1.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.592</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.574</v>
+        <v>5.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.522</v>
+        <v>2.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.248</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1483,94 +1483,94 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.872</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>2.913</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>3.654</v>
+        <v>3.5</v>
       </c>
       <c r="F12" t="n">
-        <v>3.986</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>4.229</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.151</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.793</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.319</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>0.726</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.221</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.693</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.134</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>2.366</v>
+        <v>2.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.577</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>2.816</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>2.844</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.684</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>0.862</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.088</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.237</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.638</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.611</v>
+        <v>1.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.681</v>
+        <v>2.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.712</v>
+        <v>2.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.645</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.626</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.427</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -1578,94 +1578,94 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.959</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.081</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.926</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
-        <v>3.768</v>
+        <v>4.5</v>
       </c>
       <c r="F13" t="n">
-        <v>4.517</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.597</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.453</v>
+        <v>6.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.101</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.416</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.729</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.314</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.54</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>2.031</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>2.323</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.867</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.169</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>3.154</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.06</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.803</v>
+        <v>1.5</v>
       </c>
       <c r="U13" t="n">
-        <v>0.819</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.001</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.327</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.753</v>
+        <v>2.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.808</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.979</v>
+        <v>1.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.747</v>
+        <v>1.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.719</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.572</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,94 +1673,94 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.912</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.929</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>3.076</v>
+        <v>5.5</v>
       </c>
       <c r="E14" t="n">
-        <v>4.611</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>4.858</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>5.001</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.822</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.341</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.667</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.707</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.186</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.696</v>
+        <v>2.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.085</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.892</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.993</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.286</v>
+        <v>7</v>
       </c>
       <c r="R14" t="n">
-        <v>3.528</v>
+        <v>6</v>
       </c>
       <c r="S14" t="n">
-        <v>3.256</v>
+        <v>4.5</v>
       </c>
       <c r="T14" t="n">
-        <v>3.059</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>0.757</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.245</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.482</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.797</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.956</v>
+        <v>1.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.972</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.948</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.441</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1768,94 +1768,94 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2.008</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4.072</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>4.774</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>5.446</v>
+        <v>4.5</v>
       </c>
       <c r="G15" t="n">
-        <v>5.389</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>5.344</v>
+        <v>6.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.662</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.84</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.003</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.568</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.445</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>2.943</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>3.571</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.791</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>3.783</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>3.697</v>
+        <v>8</v>
       </c>
       <c r="T15" t="n">
-        <v>3.122</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>0.745</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.977</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.066</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.587</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.808</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.002</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.136</v>
+        <v>2.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.024</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.932</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.671</v>
+        <v>4.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1863,94 +1863,94 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.877</v>
+        <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.249</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4.06</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>5.428</v>
+        <v>6.5</v>
       </c>
       <c r="F16" t="n">
-        <v>5.855</v>
+        <v>9.5</v>
       </c>
       <c r="G16" t="n">
-        <v>5.932</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>5.646</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.751</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.966</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.529</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.997</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.194</v>
+        <v>1.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.527</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>3.327</v>
+        <v>2.5</v>
       </c>
       <c r="P16" t="n">
-        <v>3.682</v>
+        <v>6.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.351</v>
+        <v>4.5</v>
       </c>
       <c r="R16" t="n">
-        <v>4.342</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>3.98</v>
+        <v>8.5</v>
       </c>
       <c r="T16" t="n">
-        <v>3.44</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>0.669</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.434</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.542</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.034</v>
+        <v>5</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.064</v>
+        <v>0.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.412</v>
+        <v>5</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.096</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.047</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.691</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1958,94 +1958,94 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.891</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>3.341</v>
+        <v>0.5</v>
       </c>
       <c r="D17" t="n">
-        <v>4.32</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>5.64</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>6.487</v>
+        <v>7.5</v>
       </c>
       <c r="G17" t="n">
-        <v>6.308</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>6.071</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.694</v>
+        <v>6.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.063</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.436</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>2.165</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>2.631</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>3.266</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>4.06</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.245</v>
+        <v>7.5</v>
       </c>
       <c r="R17" t="n">
-        <v>4.617</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>4.508</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>3.76</v>
+        <v>1.5</v>
       </c>
       <c r="U17" t="n">
-        <v>0.5580000000000001</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.822</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.256</v>
+        <v>3.5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.467</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.997</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.342</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.485</v>
+        <v>5</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.286</v>
+        <v>1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.804</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2053,94 +2053,94 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.944</v>
+        <v>1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>3.281</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>5.316</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>6.088</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>6.633</v>
+        <v>10.5</v>
       </c>
       <c r="G18" t="n">
-        <v>6.974</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>6.745</v>
+        <v>7.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.835</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4.037</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.046</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.995</v>
+        <v>8.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.951</v>
+        <v>4.5</v>
       </c>
       <c r="O18" t="n">
-        <v>3.49</v>
+        <v>6.5</v>
       </c>
       <c r="P18" t="n">
-        <v>4.295</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.769</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>5.007</v>
+        <v>4.5</v>
       </c>
       <c r="S18" t="n">
-        <v>4.772</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>3.703</v>
+        <v>7.5</v>
       </c>
       <c r="U18" t="n">
-        <v>0.587</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8080000000000001</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.369</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.789</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.913</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.333</v>
+        <v>1.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.457</v>
+        <v>5.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.543</v>
+        <v>1.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.445</v>
+        <v>5.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.837</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.553</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19">
@@ -2148,94 +2148,94 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.844</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>3.309</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>5.489</v>
+        <v>9.5</v>
       </c>
       <c r="E19" t="n">
-        <v>6.827</v>
+        <v>3.5</v>
       </c>
       <c r="F19" t="n">
-        <v>7.317</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>7.311</v>
+        <v>11</v>
       </c>
       <c r="H19" t="n">
-        <v>7.147</v>
+        <v>7.5</v>
       </c>
       <c r="I19" t="n">
-        <v>6.15</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.366</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.327</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.931</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.916</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.004</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>4.078</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>4.78</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.161</v>
+        <v>7.5</v>
       </c>
       <c r="R19" t="n">
-        <v>5.305</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5.157</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>4.06</v>
+        <v>3.5</v>
       </c>
       <c r="U19" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.208</v>
+        <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>1.701</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.291</v>
+        <v>2.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.382</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.506</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.722</v>
+        <v>4.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.406</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.076</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2243,94 +2243,94 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9409999999999999</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3.301</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="n">
-        <v>5.669</v>
+        <v>5.5</v>
       </c>
       <c r="E20" t="n">
-        <v>7.133</v>
+        <v>8.5</v>
       </c>
       <c r="F20" t="n">
-        <v>7.742</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>7.864</v>
+        <v>8.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7.399</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>6.459</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>4.48</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.976</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>3.274</v>
+        <v>1.5</v>
       </c>
       <c r="O20" t="n">
-        <v>3.981</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.893</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.498</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>5.955</v>
+        <v>6.5</v>
       </c>
       <c r="S20" t="n">
-        <v>5.479</v>
+        <v>5.5</v>
       </c>
       <c r="T20" t="n">
-        <v>4.295</v>
+        <v>7</v>
       </c>
       <c r="U20" t="n">
-        <v>0.418</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6870000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.539</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.014</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.453</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.67</v>
+        <v>5.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.859</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.565</v>
+        <v>3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.878</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2338,94 +2338,94 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>2.057</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4.554</v>
+        <v>7.5</v>
       </c>
       <c r="D21" t="n">
-        <v>6.739</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>7.769</v>
+        <v>9.5</v>
       </c>
       <c r="F21" t="n">
-        <v>8.356999999999999</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>8.076000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="H21" t="n">
-        <v>7.756</v>
+        <v>7.5</v>
       </c>
       <c r="I21" t="n">
-        <v>6.567</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.536</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.407</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>2.481</v>
+        <v>1.5</v>
       </c>
       <c r="N21" t="n">
-        <v>3.724</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>4.616</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>5.449</v>
+        <v>7.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.71</v>
+        <v>7.5</v>
       </c>
       <c r="R21" t="n">
-        <v>6.313</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
-        <v>5.862</v>
+        <v>8</v>
       </c>
       <c r="T21" t="n">
-        <v>4.643</v>
+        <v>5</v>
       </c>
       <c r="U21" t="n">
-        <v>0.486</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.793</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.539</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.823</v>
+        <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.678</v>
+        <v>3.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.686</v>
+        <v>6</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.921</v>
+        <v>2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.012</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Implementation/Python/experiment4blind.xlsx
+++ b/Implementation/Python/experiment4blind.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.55</v>
+        <v>0.0011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.0012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>0.0013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>0.0014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>0.0015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.0016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.85</v>
+        <v>0.0017</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9</v>
+        <v>0.0018</v>
       </c>
       <c r="J2" t="n">
-        <v>0.95</v>
+        <v>0.0019</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05</v>
+        <v>0.0021</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>0.0022</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15</v>
+        <v>0.0023</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>0.0024</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>0.0025</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.3</v>
+        <v>0.0026</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>0.0027</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0.0028</v>
       </c>
       <c r="T2" t="n">
-        <v>1.45</v>
+        <v>0.0029</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>0.003</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>0.0031</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>0.0032</v>
       </c>
       <c r="X2" t="n">
-        <v>1.65</v>
+        <v>0.0033</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.7</v>
+        <v>0.0034</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.75</v>
+        <v>0.0035</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.8</v>
+        <v>0.0036</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.85</v>
+        <v>0.0037</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>0.0038</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.95</v>
+        <v>0.0039</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="3">
@@ -640,82 +640,82 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.449</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.473</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.439</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.264</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.279</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.403</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.389</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.393</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.384</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.382</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.162</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0.134</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.279</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.266</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5</v>
+        <v>0.271</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="4">
@@ -732,85 +732,85 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.609</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.638</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0.605</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>0.858</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.778</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0.538</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5</v>
+        <v>0.548</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>0.612</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>0.677</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0.648</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.634</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0.266</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.282</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0.273</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>0.264</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.445</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.387</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.5</v>
+        <v>0.383</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="5">
@@ -824,88 +824,88 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.763</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.735</v>
       </c>
       <c r="F5" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0.997</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.733</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>0.82</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0.364</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.394</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5</v>
+        <v>0.622</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0.569</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0.724</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5</v>
+        <v>0.596</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="6">
@@ -916,91 +916,91 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.5</v>
+        <v>0.852</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0.806</v>
       </c>
       <c r="E6" t="n">
-        <v>2.5</v>
+        <v>1.399</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.361</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>1.704</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>1.691</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>1.473</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>1.421</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.961</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.961</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.146</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>1.143</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5</v>
+        <v>1.268</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.179</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>1.187</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.236</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>0.924</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.519</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.713</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>0.829</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0.821</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.5</v>
+        <v>0.639</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0.621</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.5</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="7">
@@ -1011,91 +1011,91 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.884</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>1.535</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>1.947</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>1.978</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.063</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>1.569</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0.885</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.952</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>1.208</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.427</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>1.481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>1.496</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>1.441</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>1.232</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.539</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.762</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.863</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5</v>
+        <v>0.912</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.5</v>
+        <v>0.998</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.717</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="8">
@@ -1106,91 +1106,91 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5</v>
+        <v>0.844</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>1.717</v>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>5.5</v>
+        <v>2.452</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>2.284</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K8" t="n">
-        <v>1.5</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>1.002</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>1.258</v>
       </c>
       <c r="N8" t="n">
-        <v>2.5</v>
+        <v>1.481</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1.638</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>1.658</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.642</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>1.675</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>1.647</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>1.302</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.623</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.611</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.898</v>
       </c>
       <c r="X8" t="n">
-        <v>1.5</v>
+        <v>1.056</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.059</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.5</v>
+        <v>1.19</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>1.171</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5</v>
+        <v>1.136</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>1.025</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.744</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="9">
@@ -1201,91 +1201,91 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.5</v>
+        <v>0.898</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>1.783</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>2.73</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.814</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.758</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>2.586</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.074</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>0.957</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="M9" t="n">
-        <v>1.5</v>
+        <v>1.287</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>1.998</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>1.939</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>1.958</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.942</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1.483</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>0.747</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.913</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>1.285</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5</v>
+        <v>1.385</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>1.355</v>
       </c>
       <c r="AA9" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="AB9" t="n">
-        <v>3</v>
+        <v>1.254</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>1.225</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.844</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="10">
@@ -1296,91 +1296,91 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>0.862</v>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>1.846</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2.585</v>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>3.029</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>3.169</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5</v>
+        <v>3.233</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.839</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.218</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.904</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.957</v>
       </c>
       <c r="M10" t="n">
-        <v>1.5</v>
+        <v>1.394</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.554</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.963</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.093</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2.261</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>2.278</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.101</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>1.656</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0.732</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0.789</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>1.028</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.255</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1.532</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.527</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5</v>
+        <v>1.317</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5</v>
+        <v>1.181</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.5</v>
+        <v>0.929</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="11">
@@ -1388,94 +1388,94 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>1.014</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>1.872</v>
       </c>
       <c r="D11" t="n">
-        <v>5.5</v>
+        <v>2.622</v>
       </c>
       <c r="E11" t="n">
-        <v>2.5</v>
+        <v>3.436</v>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>3.621</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>3.743</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3.512</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3.127</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>2.147</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.002</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.381</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1.627</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>1.984</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>2.305</v>
       </c>
       <c r="P11" t="n">
-        <v>5.5</v>
+        <v>2.418</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.469</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>2.426</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2.31</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>1.765</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="V11" t="n">
-        <v>6</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.369</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>1.479</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.627</v>
       </c>
       <c r="Z11" t="n">
-        <v>3</v>
+        <v>1.678</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.5</v>
+        <v>1.638</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.5</v>
+        <v>1.565</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>1.251</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="12">
@@ -1483,94 +1483,94 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.952</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1.911</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2.791</v>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>3.512</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>3.942</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>4.098</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.078</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.816</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.286</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.919</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1.323</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.672</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2.193</v>
       </c>
       <c r="O12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>2.584</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2.618</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.806</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.916</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.454</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>1.196</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.168</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>1.552</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.5</v>
+        <v>1.442</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.5</v>
+        <v>1.625</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>1.733</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.537</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.5</v>
+        <v>1.353</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.5</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="13">
@@ -1578,94 +1578,94 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.844</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.928</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>2.995</v>
       </c>
       <c r="E13" t="n">
-        <v>4.5</v>
+        <v>3.851</v>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>4.477</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>4.646</v>
       </c>
       <c r="H13" t="n">
-        <v>6.5</v>
+        <v>4.42</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>4.066</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>3.414</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>1.237</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1.821</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>2.034</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2.484</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.084</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>3.179</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>3.088</v>
       </c>
       <c r="T13" t="n">
-        <v>1.5</v>
+        <v>2.746</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.836</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>0.969</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>1.275</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>1.427</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.5</v>
+        <v>1.618</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>1.823</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.5</v>
+        <v>1.932</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.5</v>
+        <v>1.779</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>1.766</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.403</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="14">
@@ -1673,94 +1673,94 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.891</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1.994</v>
       </c>
       <c r="D14" t="n">
-        <v>5.5</v>
+        <v>3.016</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>4.48</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>4.864</v>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>5.037</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>4.768</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4.35</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>3.703</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.633</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>1.178</v>
       </c>
       <c r="M14" t="n">
-        <v>2.5</v>
+        <v>1.616</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.976</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>2.859</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.215</v>
       </c>
       <c r="Q14" t="n">
-        <v>7</v>
+        <v>3.327</v>
       </c>
       <c r="R14" t="n">
-        <v>6</v>
+        <v>3.504</v>
       </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>3.358</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>3.007</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.699</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.063</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.185</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.507</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.928</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.5</v>
+        <v>1.878</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>2.033</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.874</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>1.843</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.476</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15">
@@ -1768,94 +1768,94 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.844</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1.981</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>3.918</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>4.768</v>
       </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>5.628</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>5.358</v>
       </c>
       <c r="H15" t="n">
-        <v>6.5</v>
+        <v>5.411</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.525</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.807</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.643</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.128</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.622</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>2.314</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>2.753</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>3.485</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>3.578</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>3.883</v>
       </c>
       <c r="S15" t="n">
-        <v>8</v>
+        <v>3.641</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>3.296</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.992</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.104</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>1.612</v>
       </c>
       <c r="Y15" t="n">
-        <v>6</v>
+        <v>1.701</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>2.113</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.5</v>
+        <v>1.957</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1.917</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.5</v>
+        <v>1.445</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="16">
@@ -1863,94 +1863,94 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>0.861</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>3.126</v>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>4.258</v>
       </c>
       <c r="E16" t="n">
-        <v>6.5</v>
+        <v>5.41</v>
       </c>
       <c r="F16" t="n">
-        <v>9.5</v>
+        <v>5.908</v>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>5.956</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>5.77</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>4.822</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3.912</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.527</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.035</v>
       </c>
       <c r="M16" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.299</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.332</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4.188</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.255</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.957</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.5</v>
       </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="X16" t="n">
         <v>1.5</v>
       </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3</v>
-      </c>
       <c r="Y16" t="n">
-        <v>5</v>
+        <v>1.976</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.5</v>
+        <v>2.134</v>
       </c>
       <c r="AA16" t="n">
-        <v>5</v>
+        <v>2.222</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>2.169</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>1.92</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>1.738</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="17">
@@ -1958,94 +1958,94 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0.899</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>3.35</v>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>4.282</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>5.789</v>
       </c>
       <c r="F17" t="n">
-        <v>7.5</v>
+        <v>6.405</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>6.278</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>6.218</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>5.605</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>4.134</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.923</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>2.062</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>2.528</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>3.422</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.133</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.5</v>
+        <v>4.536</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>4.668</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.36</v>
       </c>
       <c r="T17" t="n">
-        <v>1.5</v>
+        <v>3.796</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.611</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.894</v>
       </c>
       <c r="W17" t="n">
-        <v>3.5</v>
+        <v>1.443</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>1.585</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>2.172</v>
       </c>
       <c r="AA17" t="n">
-        <v>5</v>
+        <v>2.327</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>2.247</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.5</v>
+        <v>2.335</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>1.714</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="18">
@@ -2053,94 +2053,94 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1.5</v>
+        <v>0.832</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>3.201</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>5.311</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>5.928</v>
       </c>
       <c r="F18" t="n">
-        <v>10.5</v>
+        <v>6.933</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>6.762</v>
       </c>
       <c r="H18" t="n">
-        <v>7.5</v>
+        <v>6.622</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.815</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>4.299</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>0.886</v>
       </c>
       <c r="M18" t="n">
-        <v>8.5</v>
+        <v>1.855</v>
       </c>
       <c r="N18" t="n">
-        <v>4.5</v>
+        <v>3.124</v>
       </c>
       <c r="O18" t="n">
-        <v>6.5</v>
+        <v>3.704</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>4.076</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4.707</v>
       </c>
       <c r="R18" t="n">
-        <v>4.5</v>
+        <v>4.982</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>4.829</v>
       </c>
       <c r="T18" t="n">
-        <v>7.5</v>
+        <v>3.884</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.603</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.987</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.5</v>
+        <v>2.343</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.5</v>
+        <v>2.43</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.5</v>
+        <v>2.447</v>
       </c>
       <c r="AC18" t="n">
-        <v>5.5</v>
+        <v>2.488</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>1.802</v>
       </c>
       <c r="AE18" t="n">
-        <v>4.5</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="19">
@@ -2148,94 +2148,94 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3.287</v>
       </c>
       <c r="D19" t="n">
-        <v>9.5</v>
+        <v>5.497</v>
       </c>
       <c r="E19" t="n">
-        <v>3.5</v>
+        <v>6.835</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>7.361</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>7.359</v>
       </c>
       <c r="H19" t="n">
-        <v>7.5</v>
+        <v>6.901</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>6.069</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4.313</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.367</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0.765</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.778</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.918</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>4.035</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>4.954</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.5</v>
+        <v>5.111</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>5.292</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>5.049</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>4.216</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.554</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.787</v>
       </c>
       <c r="W19" t="n">
-        <v>6</v>
+        <v>1.343</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.612</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.5</v>
+        <v>2.153</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>2.285</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2.427</v>
       </c>
       <c r="AB19" t="n">
-        <v>4.5</v>
+        <v>2.613</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>2.46</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2.006</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2243,94 +2243,94 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.876</v>
       </c>
       <c r="C20" t="n">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="D20" t="n">
-        <v>5.5</v>
+        <v>5.608</v>
       </c>
       <c r="E20" t="n">
-        <v>8.5</v>
+        <v>7.204</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>7.584</v>
       </c>
       <c r="G20" t="n">
-        <v>8.5</v>
+        <v>7.841</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>7.385</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>6.478</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>4.606</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.871</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1.985</v>
       </c>
       <c r="N20" t="n">
-        <v>1.5</v>
+        <v>3.096</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>4.191</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>5.074</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>5.405</v>
       </c>
       <c r="R20" t="n">
-        <v>6.5</v>
+        <v>5.613</v>
       </c>
       <c r="S20" t="n">
-        <v>5.5</v>
+        <v>5.387</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>4.497</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="V20" t="n">
-        <v>3.5</v>
+        <v>0.667</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.219</v>
       </c>
       <c r="X20" t="n">
-        <v>4.5</v>
+        <v>1.651</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.952</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>2.469</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.5</v>
+        <v>2.607</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>2.553</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.5</v>
+        <v>2.464</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>2.106</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="21">
@@ -2338,94 +2338,94 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2.073</v>
       </c>
       <c r="C21" t="n">
-        <v>7.5</v>
+        <v>4.671</v>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>6.501</v>
       </c>
       <c r="E21" t="n">
-        <v>9.5</v>
+        <v>7.869</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>14.5</v>
+        <v>8.302</v>
       </c>
       <c r="H21" t="n">
-        <v>7.5</v>
+        <v>7.687</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>6.621</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>4.644</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>1.421</v>
       </c>
       <c r="M21" t="n">
-        <v>1.5</v>
+        <v>2.624</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.394</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>4.354</v>
       </c>
       <c r="P21" t="n">
-        <v>7.5</v>
+        <v>5.427</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.5</v>
+        <v>6.069</v>
       </c>
       <c r="R21" t="n">
-        <v>7</v>
+        <v>6.228</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>5.785</v>
       </c>
       <c r="T21" t="n">
-        <v>5</v>
+        <v>4.505</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.439</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.054</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.331</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>1.701</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>2.119</v>
       </c>
       <c r="Z21" t="n">
-        <v>5</v>
+        <v>2.681</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.5</v>
+        <v>2.813</v>
       </c>
       <c r="AB21" t="n">
-        <v>6</v>
+        <v>2.641</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>2.002</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.676</v>
       </c>
     </row>
   </sheetData>
